--- a/figures_tables/ELISpot/ELISpot_P_ST4.xlsx
+++ b/figures_tables/ELISpot/ELISpot_P_ST4.xlsx
@@ -385,14 +385,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0 / 4</t>
+          <t>interval0 / interval4</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.1019187634129507</v>
+        <v>0.101919</v>
       </c>
       <c r="D2">
-        <v>8.999584522051407e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -401,14 +401,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>interval0 / interval6</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.09363833278253325</v>
+        <v>0.093638</v>
       </c>
       <c r="D3">
-        <v>2.153878964072931e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -417,14 +417,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>interval0 / interval8</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.1604228426984387</v>
+        <v>0.160423</v>
       </c>
       <c r="D4">
-        <v>1.230609480595835e-05</v>
+        <v>1.2e-05</v>
       </c>
     </row>
     <row r="5">
@@ -433,14 +433,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 / 2</t>
+          <t>interval1 / interval2</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.3077337123643976</v>
+        <v>0.307734</v>
       </c>
       <c r="D5">
-        <v>0.01636676756651456</v>
+        <v>0.016367</v>
       </c>
     </row>
     <row r="6">
@@ -449,14 +449,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>interval1 / interval4</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.08336208832122702</v>
+        <v>0.08336200000000001</v>
       </c>
       <c r="D6">
-        <v>1.572209029632177e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -465,14 +465,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>interval1 / interval6</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.07658930216845726</v>
+        <v>0.076589</v>
       </c>
       <c r="D7">
-        <v>2.593925074734216e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -481,14 +481,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1 / 8</t>
+          <t>interval1 / interval8</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.1312141428520339</v>
+        <v>0.131214</v>
       </c>
       <c r="D8">
-        <v>2.175828252015677e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -497,14 +497,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2 / 4</t>
+          <t>interval2 / interval4</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.2708903346361846</v>
+        <v>0.27089</v>
       </c>
       <c r="D9">
-        <v>1.394368263329948e-05</v>
+        <v>1.4e-05</v>
       </c>
     </row>
     <row r="10">
@@ -513,14 +513,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2 / 6</t>
+          <t>interval2 / interval6</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.2488817412301105</v>
+        <v>0.248882</v>
       </c>
       <c r="D10">
-        <v>1.192091981350174e-06</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="11">
@@ -529,14 +529,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2 / 8</t>
+          <t>interval2 / interval8</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.4263885872102923</v>
+        <v>0.426389</v>
       </c>
       <c r="D11">
-        <v>0.01630909389606949</v>
+        <v>0.016309</v>
       </c>
     </row>
     <row r="12">
@@ -545,14 +545,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3 / 4</t>
+          <t>interval3 / interval4</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.2389625711732905</v>
+        <v>0.238963</v>
       </c>
       <c r="D12">
-        <v>5.155083405705696e-06</v>
+        <v>5e-06</v>
       </c>
     </row>
     <row r="13">
@@ -561,14 +561,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3 / 6</t>
+          <t>interval3 / interval6</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.2195479616587564</v>
+        <v>0.219548</v>
       </c>
       <c r="D13">
-        <v>5.947130184980054e-07</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="14">
@@ -577,14 +577,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>interval3 / interval8</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.3761334388528901</v>
+        <v>0.376133</v>
       </c>
       <c r="D14">
-        <v>0.007905432473577001</v>
+        <v>0.007905000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -593,14 +593,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0 / 4</t>
+          <t>interval0 / interval4</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.1835131391036295</v>
+        <v>0.183513</v>
       </c>
       <c r="D15">
-        <v>1.044091709023753e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="16">
@@ -609,14 +609,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0 / 6</t>
+          <t>interval0 / interval6</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.1010000899119602</v>
+        <v>0.101</v>
       </c>
       <c r="D16">
-        <v>1.421398554413145e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -625,14 +625,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0 / 8</t>
+          <t>interval0 / interval8</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.07047525062314851</v>
+        <v>0.070475</v>
       </c>
       <c r="D17">
-        <v>1.048050535246148e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -641,14 +641,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1 / 4</t>
+          <t>interval1 / interval4</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.1270216836017221</v>
+        <v>0.127022</v>
       </c>
       <c r="D18">
-        <v>8.033194937029364e-07</v>
+        <v>1e-06</v>
       </c>
     </row>
     <row r="19">
@@ -657,14 +657,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1 / 6</t>
+          <t>interval1 / interval6</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.06990889876990147</v>
+        <v>0.069909</v>
       </c>
       <c r="D19">
-        <v>6.830203069796426e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -673,14 +673,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1 / 8</t>
+          <t>interval1 / interval8</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.04878062154094875</v>
+        <v>0.048781</v>
       </c>
       <c r="D20">
-        <v>4.918287999089443e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -689,14 +689,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2 / 4</t>
+          <t>interval2 / interval4</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.2908770405474292</v>
+        <v>0.290877</v>
       </c>
       <c r="D21">
-        <v>0.000749827838647299</v>
+        <v>0.00075</v>
       </c>
     </row>
     <row r="22">
@@ -705,14 +705,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2 / 6</t>
+          <t>interval2 / interval6</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.1600899390207978</v>
+        <v>0.16009</v>
       </c>
       <c r="D22">
-        <v>6.511623240612607e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -721,14 +721,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2 / 8</t>
+          <t>interval2 / interval8</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.1117066191185564</v>
+        <v>0.111707</v>
       </c>
       <c r="D23">
-        <v>4.974021194925626e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -737,14 +737,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3 / 4</t>
+          <t>interval3 / interval4</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.2684165283065377</v>
+        <v>0.268417</v>
       </c>
       <c r="D24">
-        <v>0.001209321756831749</v>
+        <v>0.001209</v>
       </c>
     </row>
     <row r="25">
@@ -753,14 +753,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3 / 6</t>
+          <t>interval3 / interval6</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.1477283513607573</v>
+        <v>0.147728</v>
       </c>
       <c r="D25">
-        <v>5.300590799617311e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -769,14 +769,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3 / 8</t>
+          <t>interval3 / interval8</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.1030810229512582</v>
+        <v>0.103081</v>
       </c>
       <c r="D26">
-        <v>7.823142134100181e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -785,14 +785,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4 / 8</t>
+          <t>interval4 / interval8</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.3840338134227614</v>
+        <v>0.384034</v>
       </c>
       <c r="D27">
-        <v>0.0002133272672713016</v>
+        <v>0.000213</v>
       </c>
     </row>
   </sheetData>
